--- a/Analyzed/try8/data_2005.xlsx
+++ b/Analyzed/try8/data_2005.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>46.90000000000001</v>
       </c>
       <c r="J2">
-        <v>446.2</v>
+        <v>559.6013700000001</v>
       </c>
       <c r="K2">
         <v>1401.684</v>
       </c>
       <c r="L2">
-        <v>440.37</v>
+        <v>565.63815</v>
       </c>
       <c r="M2">
         <v>51.36178472336334</v>
@@ -558,37 +583,37 @@
         <v>-69.59</v>
       </c>
       <c r="P2">
-        <v>425.5396558207003</v>
+        <v>556.4843011206422</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
         <v>7</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -600,7 +625,22 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>50.38</v>
       </c>
       <c r="J3">
-        <v>415.6</v>
+        <v>394.35786</v>
       </c>
       <c r="K3">
         <v>2338.277</v>
       </c>
       <c r="L3">
-        <v>444.78</v>
+        <v>481.6707</v>
       </c>
       <c r="M3">
         <v>59.53551067562267</v>
@@ -652,49 +692,64 @@
         <v>-76.78</v>
       </c>
       <c r="P3">
-        <v>563.1391067263748</v>
+        <v>740.9434898635442</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>52.71</v>
       </c>
       <c r="J4">
-        <v>446.8</v>
+        <v>576.2980600000001</v>
       </c>
       <c r="K4">
         <v>2125.921</v>
       </c>
       <c r="L4">
-        <v>433.65</v>
+        <v>569.07935</v>
       </c>
       <c r="M4">
         <v>55.14917947647653</v>
@@ -746,37 +801,37 @@
         <v>-137.05</v>
       </c>
       <c r="P4">
-        <v>406.6077424701226</v>
+        <v>531.2751521506705</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -785,9 +840,24 @@
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
         <v>2</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>44.34999999999999</v>
       </c>
       <c r="J5">
-        <v>461.4</v>
+        <v>575.8878500000001</v>
       </c>
       <c r="K5">
         <v>1578.722</v>
       </c>
       <c r="L5">
-        <v>427.98</v>
+        <v>569.6145</v>
       </c>
       <c r="M5">
         <v>62.79172867281459</v>
@@ -840,49 +910,64 @@
         <v>-105.34</v>
       </c>
       <c r="P5">
-        <v>376.0647583706377</v>
+        <v>489.8975321497837</v>
       </c>
       <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
       <c r="U5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>32.14</v>
       </c>
       <c r="J6">
-        <v>390</v>
+        <v>415.3789</v>
       </c>
       <c r="K6">
         <v>1783.982</v>
       </c>
       <c r="L6">
-        <v>394.8</v>
+        <v>453.8282</v>
       </c>
       <c r="M6">
         <v>57.24110943321178</v>
@@ -934,34 +1019,34 @@
         <v>-96.87</v>
       </c>
       <c r="P6">
-        <v>330.9123365571157</v>
+        <v>430.8522331791599</v>
       </c>
       <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
       <c r="U6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>2</v>
@@ -970,13 +1055,28 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>29.65</v>
       </c>
       <c r="J7">
-        <v>426</v>
+        <v>423.0827200000001</v>
       </c>
       <c r="K7">
         <v>1445.81</v>
       </c>
       <c r="L7">
-        <v>472.08</v>
+        <v>538.9734</v>
       </c>
       <c r="M7">
         <v>66.68343630317996</v>
@@ -1028,49 +1128,64 @@
         <v>-145.16</v>
       </c>
       <c r="P7">
-        <v>268.7013564962373</v>
+        <v>348.4355439408354</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
         <v>5</v>
       </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>34.03</v>
       </c>
       <c r="J8">
-        <v>444.2</v>
+        <v>538.6133500000001</v>
       </c>
       <c r="K8">
         <v>1105.268</v>
       </c>
       <c r="L8">
-        <v>404.04</v>
+        <v>488.10405</v>
       </c>
       <c r="M8">
         <v>61.5860078729079</v>
@@ -1122,49 +1237,64 @@
         <v>-103.2</v>
       </c>
       <c r="P8">
-        <v>375.0092877864426</v>
+        <v>492.148105304932</v>
       </c>
       <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>3</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
         <v>4</v>
       </c>
-      <c r="AA8">
-        <v>2</v>
-      </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
-      </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>29.03</v>
       </c>
       <c r="J9">
-        <v>419</v>
+        <v>457.59243</v>
       </c>
       <c r="K9">
         <v>733.999</v>
       </c>
       <c r="L9">
-        <v>422.52</v>
+        <v>493.90845</v>
       </c>
       <c r="M9">
         <v>64.04517450799185</v>
@@ -1216,34 +1346,34 @@
         <v>-178.32</v>
       </c>
       <c r="P9">
-        <v>204.4007792758431</v>
+        <v>263.9620352219761</v>
       </c>
       <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
         <v>6</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1252,13 +1382,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD9">
         <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
